--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
   </si>
   <si>
     <t>线程池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newSingleThreadExecutor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,6 +388,82 @@
   </si>
   <si>
     <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步非阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步非阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newSingleThreadPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个核心线程，没有缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定数量的核心线程，没有缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心线程，全是缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有常规线程的功能，也可以配置定时任务，代替Timer的有效方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承Thread类，占用继承，不建议使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Runnable接口，但是没有返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Callable接口，有返回值，用Future执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于存储数据，固定大小，知道下标可以快速查找元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常当作工具使用，FILO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常当作工具使用，FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全可靠，数据不丢失，效率低于UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非安全可靠，数据丢失，效率高于TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于简单排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于高级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于高级排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,6 +651,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -589,15 +670,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C9:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D28" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -922,58 +994,64 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -982,16 +1060,16 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1000,286 +1078,328 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>75</v>
+      <c r="A25" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,26 +1408,26 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1316,11 +1436,11 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1329,24 +1449,24 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
@@ -1355,11 +1475,11 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1368,33 +1488,33 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">

--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基础" sheetId="1" r:id="rId1"/>
+    <sheet name="进阶" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,33 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-锁会在unlock tables后释放；
-不会出现死锁，开销小，并发度低；
-如果在read 后 加上 local 选项，则允许其他事务在表尾进行插入;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +316,98 @@
   <si>
     <t>共享锁（读锁）： lock in share mode, eq：select * from table where pid &lt;= 10 lock in share mode;
 排他锁（写锁）： for update, eq：select * from table where pid &lt;= 10 for update;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步非阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步非阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newSingleThreadPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个核心线程，没有缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定数量的核心线程，没有缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有核心线程，全是缓冲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有常规线程的功能，也可以配置定时任务，代替Timer的有效方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承Thread类，占用继承，不建议使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Runnable接口，但是没有返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Callable接口，有返回值，用Future执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用于存储数据，固定大小，知道下标可以快速查找元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常当作工具使用，FILO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常当作工具使用，FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全可靠，数据不丢失，效率低于UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非安全可靠，数据丢失，效率高于TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于简单排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于高级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于高级排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,95 +441,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+锁会在unlock tables后释放；
+不会出现死锁，开销小，并发度低；
+如果在read 后 加上 local 选项，则允许其他事务在表尾进行插入;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步非阻塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步非阻塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步阻塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newSingleThreadPool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有一个核心线程，没有缓冲线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定数量的核心线程，没有缓冲线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有核心线程，全是缓冲线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有常规线程的功能，也可以配置定时任务，代替Timer的有效方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承Thread类，占用继承，不建议使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Runnable接口，但是没有返回值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Callable接口，有返回值，用Future执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用于存储数据，固定大小，知道下标可以快速查找元素。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常当作工具使用，FILO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常当作工具使用，FIFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全可靠，数据不丢失，效率低于UDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非安全可靠，数据丢失，效率高于TCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属于简单排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属于高级排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属于高级排序</t>
+    <t>乐观锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲观锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻量锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量级锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +538,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +713,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D25:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -994,19 +1040,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1017,11 +1063,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1030,11 +1076,11 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1043,11 +1089,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1062,7 +1108,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1080,7 +1126,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1094,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1105,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1116,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1127,7 +1173,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1138,46 +1184,46 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1190,11 +1236,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1203,11 +1249,11 @@
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1216,11 +1262,11 @@
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1228,14 +1274,14 @@
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1244,11 +1290,11 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1257,11 +1303,11 @@
         <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1270,11 +1316,11 @@
         <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1288,16 +1334,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -1307,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -1320,25 +1366,25 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -1348,206 +1394,39 @@
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>42</v>
-      </c>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A24"/>
   </mergeCells>
@@ -1555,4 +1434,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="43.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="114" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,13 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读写串行，写的优先级高于读；
-设置max_write_lock_count，当排他锁达到这个值后，读优先级高于写；
-最好不要使用范围条件，尽量使用相等条件；
-一些特定的事务，最好采用表锁来减少死锁情形发生；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差read.md文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行为型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,15 +283,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成一次学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网络编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Socket学习完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,6 +422,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲观锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻量锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量级锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atomicity：原子性
+Consistency：一致性
+Isolation：隔离性
+Durability：持久性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -468,31 +488,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲观锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意向锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻量锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量级锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自旋锁</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+出现丢失更新应从应用层面上解决；
+事务的隔离级别越高，并发度越低；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写串行，写的优先级高于读；
+设置max_write_lock_count，当排他锁达到这个值后，读优先级高于写；
+最好不要使用范围条件，尽量使用相等条件；
+一些特定的事务，最好采用表锁来减少死锁情形发生；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,6 +718,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,10 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1040,385 +1065,360 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>33</v>
+      <c r="A17" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
+      <c r="A20" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
-        <v>72</v>
+      <c r="A25" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>66</v>
+      <c r="A28" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1438,54 +1438,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="43.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="43.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1507,24 +1507,24 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1546,157 +1546,173 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>96</v>
+      <c r="A8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>68</v>
+      <c r="A14" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="C18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="114" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="114" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,31 @@
 设置max_write_lock_count，当排他锁达到这个值后，读优先级高于写；
 最好不要使用范围条件，尽量使用相等条件；
 一些特定的事务，最好采用表锁来减少死锁情形发生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+当客户端接入的时候，如果没有足够的线程去分配，那么客户端会一直阻塞；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,9 +734,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -722,6 +744,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -741,6 +766,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,17 +1083,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="30.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1076,7 +1110,7 @@
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1091,7 +1125,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1104,7 +1138,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1117,7 +1151,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1128,7 +1162,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1139,7 +1173,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
@@ -1148,7 +1182,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1159,7 +1193,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -1172,7 +1206,7 @@
         <v>87</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -1183,7 +1217,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -1194,7 +1228,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
@@ -1205,7 +1239,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
@@ -1216,7 +1250,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
@@ -1229,7 +1263,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1242,7 +1276,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1255,7 +1289,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
@@ -1268,7 +1302,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1281,7 +1315,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1294,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1309,7 +1343,7 @@
         <v>75</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1322,7 +1356,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1335,7 +1369,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1348,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1359,9 +1393,9 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
@@ -1371,8 +1405,12 @@
       <c r="C25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -1383,7 +1421,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
@@ -1394,7 +1432,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
@@ -1407,7 +1445,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
@@ -1418,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1440,16 +1478,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="43.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="43.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1480,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1493,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1502,11 +1540,11 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1515,11 +1553,11 @@
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1532,7 +1570,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1541,11 +1579,11 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1556,54 +1594,54 @@
       <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
@@ -1612,13 +1650,13 @@
       <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1627,13 +1665,13 @@
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1642,11 +1680,11 @@
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1655,13 +1693,13 @@
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1670,11 +1708,11 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1685,7 +1723,7 @@
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="4"/>
@@ -1696,11 +1734,11 @@
       <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
     </row>

--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -747,6 +747,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -766,15 +775,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1093,7 @@
     <col min="2" max="2" width="21.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="30.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1110,12 +1110,12 @@
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1125,12 +1125,12 @@
         <v>82</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1138,12 +1138,12 @@
         <v>83</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1151,23 +1151,23 @@
         <v>84</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -1176,18 +1176,18 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1209,7 +1209,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1263,12 +1263,12 @@
         <v>57</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1276,12 +1276,12 @@
         <v>60</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1302,12 +1302,12 @@
         <v>79</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1315,12 +1315,12 @@
         <v>80</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1328,12 +1328,12 @@
         <v>81</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1343,12 +1343,12 @@
         <v>75</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1356,12 +1356,12 @@
         <v>76</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,12 +1369,12 @@
         <v>77</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1382,12 +1382,12 @@
         <v>78</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1408,12 +1408,12 @@
       <c r="D25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1448,7 +1448,7 @@
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1599,7 +1599,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1730,7 +1730,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="114" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
         <v>47</v>
       </c>

--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1206,7 +1206,9 @@
         <v>87</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
@@ -1217,7 +1219,9 @@
         <v>87</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>

--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
   <si>
     <t>NIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,341 @@
       <t>：
 当客户端接入的时候，如果没有足够的线程去分配，那么客户端会一直阻塞；</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素离散分部，不允许空值，不允许重复，通过equal判断元素是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1）元素的实现类须提供有效的equal方法；
+2）使用构造函数时，传入的集合中的元素不能重复；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过HASH算法存储集合中的元素，具有良好的存取和查找性能；
+通过equal方法和hashcode判断元素是否相等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用链表维护元素的次序，但依然时离散存储；
+通过HASH算法存储集合中的元素，在插入的性能方面低于HashSet，在遍历时具有良好的性能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortedSet的实现类，根据对象之间的比较实现有序（自然顺序、定义顺序），并非按照插入顺序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+本质上是一个红黑树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专门针对枚举类设计的集合类；
+所有的枚举元素都必须有枚举值；
+有序集合，根据枚举值排序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个元素有序，允许重复的集合；
+通过索引访问元素，默认按照插入顺序进行排序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于数组，是List的一个实现类；
+内部为一个可动态扩容，允许再分配的Object[]；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+默认初始容量为10；
+每次扩容都会创建新的Object[]，所以应注意容量大小，尽可能的减少扩容次数；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于数组，是List的一个实现类；
+内部为一个可动态扩容，允许再分配的Object[]；
+内部方法存在同步锁synchronized，所以线程安全，但效率低于ArrayList；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List和Deque的实现类，是一个双端链表；
+可以当作栈来使用，但是非线程安全；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以数据结构之队列为模型，先进先出原则，不允许随机访问；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector的子类，以数据结构之栈为原型，后进先出原则；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+这里的栈并非只的jvm中的栈；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue的实现类，本质上是一个Object[]，默认容量11，可动态扩容，但扩容并不是成倍增加；
+是有序的，但是并不是按照插入顺序进行排序，默认按照元素大小进行排序（自然排序），可定制排序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayDeque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是Deque的实现类，那么就是一个双端队列；
+本质上是一个Object[]，可动态扩容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+默认初始容量为10；
+每次扩容都会创建新的Object[]，所以应注意容量大小，尽可能的减少扩容次数；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注意：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始容量为16；
+扩容方式：2*n；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注意：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始容量为11；
+扩容方式：2*n + 1；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于保存键值对数据；
+在Map集合中，一个集合用于保存Key，一个集合用于保存Value，一个Entry[] 用于存放数据；
+存在负载因子（用于扩容判定），默认是0.75f；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线程安全；可使用Collections.synchronizedMap()方法来获取一个线程安全的Map；
+key允许null；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全；相对HashMap来讲，每个方法都使用同步锁synchronized；
+key不允许null；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekHashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdentityHashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -776,6 +1111,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1461,6 +1802,185 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="57" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="B37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resource/修炼.xlsx
+++ b/src/main/resource/修炼.xlsx
@@ -593,11 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用链表维护元素的次序，但依然时离散存储；
-通过HASH算法存储集合中的元素，在插入的性能方面低于HashSet，在遍历时具有良好的性能；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TreeSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,6 +873,11 @@
   </si>
   <si>
     <t>EnumMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用链表维护元素的次序，但依然时离散分部；
+通过HASH算法存储集合中的元素，在插入的性能方面低于HashSet，在遍历时具有良好的性能；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,6 +1091,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1111,12 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1793,7 +1793,7 @@
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="C30" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="B31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1826,160 +1826,160 @@
       <c r="B32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>110</v>
+      <c r="C32" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>121</v>
+      <c r="D37" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="D42" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2032,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2123,7 +2123,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2254,7 +2254,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="114" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
